--- a/Client/ClientDoc/Errornote.xlsx
+++ b/Client/ClientDoc/Errornote.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjdtj\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationWork\Client\ClientDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F3203B-E11A-4676-A22E-9CEFC2E9512A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB83BC3-CCC0-4658-ABDD-38C154672513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
+    <workbookView xWindow="-4140" yWindow="-30" windowWidth="16605" windowHeight="15015" activeTab="1" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
+    <sheet name="Code" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>발견 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +62,37 @@
   <si>
     <t>Framework::FrameAdvance 에서 clearcolor를 명확한 값이 아닌것으로 바꾸면 발생하는 오류 였다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define ROOT_PARAMETER_CAMERA		0
+#define ROOT_PARAMETER_OBJECT		1
+#define ROOT_PARAMETER_PLAYER		1
+#define ROOT_PARAMETER_MATERIAL		2
+#define ROOT_PARAMETER_LIGHT		3
+#define ROOT_PARAMETER_TEXTURE		4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stdafx.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SetGraphicsRootConstantBufferView() 호출시 인자로 들어갈 루트 파라미터 인덱스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetGraphicsRoot32BitConstants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 인자 offset 범위설정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4뭥미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID3D12CommandList::SetGraphicsRoot32BitConstants: RootParameterIndex [1] is out of bounds for the currently set root signature, which declares 1 root parameters.</t>
   </si>
 </sst>
 </file>
@@ -121,7 +153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -130,6 +162,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -146,6 +184,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312966</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>192890</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>921337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5CC2B2-7207-43CF-96C1-D87AB0313480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15593787" y="367392"/>
+          <a:ext cx="7363853" cy="962159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010CCB8-5337-4488-8FF7-1A2F88F7C1B3}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -493,13 +580,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>200207</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -777,4 +868,287 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6003E8B3-757D-4013-803E-47761184C0B1}">
+  <dimension ref="B2:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="60.25" customWidth="1"/>
+    <col min="5" max="5" width="95.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Client/ClientDoc/Errornote.xlsx
+++ b/Client/ClientDoc/Errornote.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationWork\Client\ClientDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\졸작2\Client\ClientDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB83BC3-CCC0-4658-ABDD-38C154672513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C0EC4D-0897-4D90-97F5-438B12DA19B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4140" yWindow="-30" windowWidth="16605" windowHeight="15015" activeTab="1" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
+    <workbookView xWindow="-25320" yWindow="420" windowWidth="25440" windowHeight="15390" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>발견 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t xml:space="preserve"> ID3D12CommandList::SetGraphicsRoot32BitConstants: RootParameterIndex [1] is out of bounds for the currently set root signature, which declares 1 root parameters.</t>
+  </si>
+  <si>
+    <t>PostProcessingShader의 루트 시그니쳐에 플레이어의 루트 파라미터를 정해주지 않았었음. 그래서 플레이어를 포스트 프로세싱 이전에 렌더함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -534,19 +538,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010CCB8-5337-4488-8FF7-1A2F88F7C1B3}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="92.5" customWidth="1"/>
-    <col min="6" max="6" width="86.375" customWidth="1"/>
+    <col min="6" max="6" width="86.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -563,7 +567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -580,20 +584,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>200207</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>200207</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -602,7 +610,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -611,7 +619,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -620,7 +628,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -629,7 +637,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -638,7 +646,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -647,7 +655,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -656,7 +664,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -665,7 +673,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -674,7 +682,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -683,7 +691,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -692,7 +700,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -701,7 +709,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -710,7 +718,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -719,7 +727,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -728,7 +736,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -737,7 +745,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -746,7 +754,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -755,7 +763,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -764,7 +772,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -773,7 +781,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -782,7 +790,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -791,7 +799,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -800,7 +808,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -809,7 +817,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -818,7 +826,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -827,7 +835,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -836,7 +844,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -845,7 +853,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -854,7 +862,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -874,17 +882,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6003E8B3-757D-4013-803E-47761184C0B1}">
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="60.25" customWidth="1"/>
-    <col min="5" max="5" width="95.625" customWidth="1"/>
+    <col min="4" max="4" width="60.19921875" customWidth="1"/>
+    <col min="5" max="5" width="95.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -892,7 +900,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:9" ht="99" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -906,7 +914,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -921,7 +929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -929,7 +937,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -937,7 +945,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -945,7 +953,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -953,7 +961,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -961,7 +969,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -969,7 +977,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -977,7 +985,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -985,7 +993,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -993,7 +1001,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1001,7 +1009,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1009,7 +1017,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1017,7 +1025,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1025,7 +1033,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1033,7 +1041,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1041,7 +1049,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1049,7 +1057,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1057,7 +1065,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1065,7 +1073,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1073,7 +1081,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1081,7 +1089,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1089,7 +1097,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1097,7 +1105,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1105,7 +1113,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1113,7 +1121,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1121,7 +1129,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1129,7 +1137,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1137,7 +1145,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>

--- a/Client/ClientDoc/Errornote.xlsx
+++ b/Client/ClientDoc/Errornote.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\졸작2\Client\ClientDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationWork\Client\ClientDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C0EC4D-0897-4D90-97F5-438B12DA19B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17914EA4-B6AA-4F1F-BF9D-C15073E1C3EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="420" windowWidth="25440" windowHeight="15390" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
+    <workbookView xWindow="-12270" yWindow="-210" windowWidth="21600" windowHeight="12855" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
     <sheet name="Code" sheetId="2" r:id="rId2"/>
+    <sheet name="Anote" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>발견 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +97,41 @@
   </si>
   <si>
     <t>PostProcessingShader의 루트 시그니쳐에 플레이어의 루트 파라미터를 정해주지 않았었음. 그래서 플레이어를 포스트 프로세싱 이전에 렌더함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ID3D12CommandList::DrawIndexedInstanced: No pipeline state has been set in this command list.  The runtime will use a default no-op pipeline state. </t>
+  </si>
+  <si>
+    <t>D3D12 ERROR: ID3D12CommandList::SetDescriptorHeaps: pDescriptorHeaps[0] is NULL but NumDescriptorHeaps is &gt; 0.  To unset all descriptor heaps, pass 0 for NumDescriptorHeaps. [ EXECUTION ERROR #554: SET_DESCRIPTOR_HEAP_INVALID]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12 ERROR: ID3D12GraphicsCommandList::*: This API cannot be called on a closed command list. [ EXECUTION ERROR #547: COMMAND_LIST_CLOSED]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12 ERROR: ID3D12CommandList::DrawIndexedInstanced: The render target format in slot 1 does not match that specified by the current pipeline state. A null view must be bound when the pipeline state render target format is UNKNOWN. (pipeline state = UNKNOWN, RTV ID3D12Resource* = 0x00000274E8698EA0:'Unnamed ID3D12Resource Object') [ EXECUTION ERROR #613: RENDER_TARGET_FORMAT_MISMATCH_PIPELINE_STATE]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다중랜더 타겟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Drawinstance </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postprocessing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말그대로 heap를 초기화 시켜주지 않아서 그랬다. OnprepareRender에 있는 m_pd3dCbvSrvDescriptorHeap이 null이여서 발생하는 문제 CreateCbvAndSrvDescriptorHeaps을 셰이더가 말들어 지지 않은 곳에 만들어주자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,19 +574,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010CCB8-5337-4488-8FF7-1A2F88F7C1B3}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="92.5" customWidth="1"/>
-    <col min="6" max="6" width="86.3984375" customWidth="1"/>
+    <col min="5" max="5" width="125.625" customWidth="1"/>
+    <col min="6" max="6" width="86.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -567,7 +603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -584,7 +620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -601,43 +637,59 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>20200210</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>20200210</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>20200210</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -646,7 +698,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -655,7 +707,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -664,7 +716,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -673,7 +725,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -682,7 +734,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -691,7 +743,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -700,7 +752,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -709,7 +761,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -718,7 +770,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -727,7 +779,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -736,7 +788,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -745,7 +797,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -754,7 +806,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -763,7 +815,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -772,7 +824,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -781,7 +833,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -790,7 +842,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -799,7 +851,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -808,7 +860,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -817,7 +869,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -826,7 +878,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -835,7 +887,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -844,7 +896,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -853,7 +905,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -862,7 +914,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -883,16 +935,16 @@
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="60.19921875" customWidth="1"/>
-    <col min="5" max="5" width="95.59765625" customWidth="1"/>
+    <col min="4" max="4" width="60.25" customWidth="1"/>
+    <col min="5" max="5" width="95.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -900,7 +952,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:9" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" ht="99" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
@@ -914,7 +966,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -929,7 +981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -937,7 +989,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -945,7 +997,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -953,7 +1005,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -961,7 +1013,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -969,7 +1021,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -977,7 +1029,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -985,7 +1037,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -993,7 +1045,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1001,7 +1053,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1009,7 +1061,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1017,7 +1069,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1025,7 +1077,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1033,7 +1085,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1041,7 +1093,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1049,7 +1101,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1057,7 +1109,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1065,7 +1117,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1073,7 +1125,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1081,7 +1133,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1089,7 +1141,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1097,7 +1149,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1105,7 +1157,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1113,7 +1165,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1121,7 +1173,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1129,7 +1181,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1137,7 +1189,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1145,7 +1197,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1159,4 +1211,40 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FDA18A-1DE0-494D-94C0-E2B7CA3526FA}">
+  <dimension ref="B2:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="4" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Client/ClientDoc/Errornote.xlsx
+++ b/Client/ClientDoc/Errornote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationWork\Client\ClientDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17914EA4-B6AA-4F1F-BF9D-C15073E1C3EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1338429D-6065-4F5F-9832-AE3DAEAF777E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12270" yWindow="-210" windowWidth="21600" windowHeight="12855" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
+    <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15390" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>발견 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>말그대로 heap를 초기화 시켜주지 않아서 그랬다. OnprepareRender에 있는 m_pd3dCbvSrvDescriptorHeap이 null이여서 발생하는 문제 CreateCbvAndSrvDescriptorHeaps을 셰이더가 말들어 지지 않은 곳에 만들어주자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IlluminatedShader의 CreateShader의 렌더타겟 개수를 넘겨주는 인자에 랜더타겟 개수만큼 넘겨주었음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,16 +578,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010CCB8-5337-4488-8FF7-1A2F88F7C1B3}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="125.625" customWidth="1"/>
-    <col min="6" max="6" width="86.375" customWidth="1"/>
+    <col min="5" max="5" width="93.5" customWidth="1"/>
+    <col min="6" max="6" width="71.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
@@ -608,15 +614,15 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>200204</v>
+        <v>20200204</v>
       </c>
       <c r="D3" s="1">
-        <v>200204</v>
+        <v>20200204</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -625,10 +631,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>200207</v>
+        <v>20200207</v>
       </c>
       <c r="D4" s="1">
-        <v>200207</v>
+        <v>20200207</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -659,7 +665,9 @@
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7" s="1">

--- a/Client/ClientDoc/Errornote.xlsx
+++ b/Client/ClientDoc/Errornote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationWork\Client\ClientDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1338429D-6065-4F5F-9832-AE3DAEAF777E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDECCE9-7EEB-44B8-907A-51FD95CEAE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15390" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
+    <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>발견 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,34 @@
   </si>
   <si>
     <t>IlluminatedShader의 CreateShader의 렌더타겟 개수를 넘겨주는 인자에 랜더타겟 개수만큼 넘겨주었음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">			IDXGIDebug1* pDebug = nullptr;
+			if (SUCCEEDED(DXGIGetDebugInterface1(0, IID_PPV_ARGS(&amp;pDebug))))
+			{
+				pDebug-&gt;ReportLiveObjects(DXGI_DEBUG_ALL, DXGI_DEBUG_RLO_SUMMARY);
+				pDebug-&gt;Release();
+			}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12 WARNING: Process is terminating. Using simple reporting. Please call ReportLiveObjects() at runtime for standard reporting. [ STATE_CREATION WARNING #0: UNKNOWN]
+D3D12 WARNING: Live Producer at 0x0000027DBBF9F1E8, Refcount: 9. [ STATE_CREATION WARNING #0: UNKNOWN]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12 WARNING: Live            ID3D12RootSignature :      3 [ STATE_CREATION WARNING #255: LIVE_OBJECT_SUMMARY]
+D3D12 WARNING: Live            ID3D12PipelineState :      4 [ STATE_CREATION WARNING #255: LIVE_OBJECT_SUMMARY]
+D3D12 WARNING: Live                 ID3D12Resource :    197 [ STATE_CREATION WARNING #255: LIVE_OBJECT_SUMMARY]
+D3D12 WARNING: Live                     ID3D12Heap :    197 [ STATE_CREATION WARNING #255: LIVE_OBJECT_SUMMARY]
+D3D12 WARNING: Live                    ID3D12Fence :      6 [ STATE_CREATION WARNING #255: LIVE_OBJECT_SUMMARY]
+D3D12 WARNING: Live             ID3D12CommandQueue :      2 [ STATE_CREATION WARNING #255: LIVE_OBJECT_SUMMARY]
+D3D12 WARNING: Live         ID3D12CommandAllocator :      4 [ STATE_CREATION WARNING #255: LIVE_OBJECT_SUMMARY]
+D3D12 WARNING: Live      ID3D12GraphicsCommandList :      4 [ STATE_CREATION WARNING #255: LIVE_OBJECT_SUMMARY]
+D3D12 WARNING: Live           ID3D12DescriptorHeap :      4 [ STATE_CREATION WARNING #255: LIVE_OBJECT_SUMMARY]
+D3D12 WARNING: Live                 IDXGISwapChain :      1 [ STATE_CREATION WARNING #255: LIVE_OBJECT_SUMMARY]
+D3D12 WARNING: Live          ID3D12LifetimeTracker :      1 [ STATE_CREATION WARNING #255: LIVE_OBJECT_SUMMARY]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,6 +239,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -578,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010CCB8-5337-4488-8FF7-1A2F88F7C1B3}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -697,14 +728,18 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="99" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -943,7 +978,7 @@
   <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1223,15 +1258,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FDA18A-1DE0-494D-94C0-E2B7CA3526FA}">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="115.5" customWidth="1"/>
     <col min="3" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1251,6 +1286,11 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="2:4" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/ClientDoc/Errornote.xlsx
+++ b/Client/ClientDoc/Errornote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationWork\Client\ClientDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDECCE9-7EEB-44B8-907A-51FD95CEAE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C23791-742D-4856-BB1A-C4FCA92E459C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010CCB8-5337-4488-8FF7-1A2F88F7C1B3}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1260,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FDA18A-1DE0-494D-94C0-E2B7CA3526FA}">
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>

--- a/Client/ClientDoc/Errornote.xlsx
+++ b/Client/ClientDoc/Errornote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationWork\Client\ClientDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C23791-742D-4856-BB1A-C4FCA92E459C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33509921-992C-400F-A0FA-032F89E9F150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
+    <workbookView xWindow="20640" yWindow="135" windowWidth="18900" windowHeight="11055" activeTab="1" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>발견 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,34 +62,6 @@
   </si>
   <si>
     <t>Framework::FrameAdvance 에서 clearcolor를 명확한 값이 아닌것으로 바꾸면 발생하는 오류 였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#define ROOT_PARAMETER_CAMERA		0
-#define ROOT_PARAMETER_OBJECT		1
-#define ROOT_PARAMETER_PLAYER		1
-#define ROOT_PARAMETER_MATERIAL		2
-#define ROOT_PARAMETER_LIGHT		3
-#define ROOT_PARAMETER_TEXTURE		4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stdafx.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SetGraphicsRootConstantBufferView() 호출시 인자로 들어갈 루트 파라미터 인덱스 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SetGraphicsRoot32BitConstants</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마지막 인자 offset 범위설정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4뭥미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -225,7 +197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,12 +206,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -267,14 +233,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>312966</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>192890</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>921337</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>145730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -609,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010CCB8-5337-4488-8FF7-1A2F88F7C1B3}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -668,10 +634,10 @@
         <v>20200207</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -681,7 +647,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -694,10 +660,10 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -709,10 +675,10 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -724,7 +690,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -735,10 +701,10 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
@@ -975,10 +941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6003E8B3-757D-4013-803E-47761184C0B1}">
-  <dimension ref="B2:I32"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -986,269 +952,7 @@
     <col min="4" max="4" width="60.25" customWidth="1"/>
     <col min="5" max="5" width="95.625" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="2:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -1260,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FDA18A-1DE0-494D-94C0-E2B7CA3526FA}">
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1272,23 +976,23 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Client/ClientDoc/Errornote.xlsx
+++ b/Client/ClientDoc/Errornote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationWork\Client\ClientDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33509921-992C-400F-A0FA-032F89E9F150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558C3C3E-714A-4244-877A-7CDF9282C18E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20640" yWindow="135" windowWidth="18900" windowHeight="11055" activeTab="1" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
+    <workbookView xWindow="4725" yWindow="705" windowWidth="21600" windowHeight="11385" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010CCB8-5337-4488-8FF7-1A2F88F7C1B3}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -943,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6003E8B3-757D-4013-803E-47761184C0B1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F2" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/Client/ClientDoc/Errornote.xlsx
+++ b/Client/ClientDoc/Errornote.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationWork\Client\ClientDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558C3C3E-714A-4244-877A-7CDF9282C18E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA91DFF7-AEC4-443F-A3B0-672007686866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4725" yWindow="705" windowWidth="21600" windowHeight="11385" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>발견 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,14 @@
 D3D12 WARNING: Live           ID3D12DescriptorHeap :      4 [ STATE_CREATION WARNING #255: LIVE_OBJECT_SUMMARY]
 D3D12 WARNING: Live                 IDXGISwapChain :      1 [ STATE_CREATION WARNING #255: LIVE_OBJECT_SUMMARY]
 D3D12 WARNING: Live          ID3D12LifetimeTracker :      1 [ STATE_CREATION WARNING #255: LIVE_OBJECT_SUMMARY]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12 ERROR: ID3D12CommandList::DrawInstanced: No pipeline state has been set in this command list.  The runtime will use a default no-op pipeline state. [ EXECUTION ERROR #1045: COMMAND_LIST_PIPELINE_STATE_NOT_SET]</t>
+  </si>
+  <si>
+    <t>createshader가 잘 오버로드 되지않았고 파이프라인스테이트상태를 new로 생성해주지 않았다. 파이프라인을 생성해주자.	 m_nPipelineStates = 1;
+	 m_ppd3dPipelineStates = new ID3D12PipelineState * [m_nPipelineStates];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010CCB8-5337-4488-8FF7-1A2F88F7C1B3}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -707,14 +715,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1">

--- a/Client/ClientDoc/Errornote.xlsx
+++ b/Client/ClientDoc/Errornote.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationWork\Client\ClientDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA91DFF7-AEC4-443F-A3B0-672007686866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558C3C3E-714A-4244-877A-7CDF9282C18E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4725" yWindow="705" windowWidth="21600" windowHeight="11385" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>발견 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,14 +136,6 @@
 D3D12 WARNING: Live           ID3D12DescriptorHeap :      4 [ STATE_CREATION WARNING #255: LIVE_OBJECT_SUMMARY]
 D3D12 WARNING: Live                 IDXGISwapChain :      1 [ STATE_CREATION WARNING #255: LIVE_OBJECT_SUMMARY]
 D3D12 WARNING: Live          ID3D12LifetimeTracker :      1 [ STATE_CREATION WARNING #255: LIVE_OBJECT_SUMMARY]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D3D12 ERROR: ID3D12CommandList::DrawInstanced: No pipeline state has been set in this command list.  The runtime will use a default no-op pipeline state. [ EXECUTION ERROR #1045: COMMAND_LIST_PIPELINE_STATE_NOT_SET]</t>
-  </si>
-  <si>
-    <t>createshader가 잘 오버로드 되지않았고 파이프라인스테이트상태를 new로 생성해주지 않았다. 파이프라인을 생성해주자.	 m_nPipelineStates = 1;
-	 m_ppd3dPipelineStates = new ID3D12PipelineState * [m_nPipelineStates];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010CCB8-5337-4488-8FF7-1A2F88F7C1B3}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -715,18 +707,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1">

--- a/Client/ClientDoc/Errornote.xlsx
+++ b/Client/ClientDoc/Errornote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationWork\Client\ClientDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA91DFF7-AEC4-443F-A3B0-672007686866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE638619-C7C6-4506-A6DF-A4E71EAA1967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="705" windowWidth="21600" windowHeight="11385" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12405" windowHeight="14730" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>발견 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,23 @@
   <si>
     <t>createshader가 잘 오버로드 되지않았고 파이프라인스테이트상태를 new로 생성해주지 않았다. 파이프라인을 생성해주자.	 m_nPipelineStates = 1;
 	 m_ppd3dPipelineStates = new ID3D12PipelineState * [m_nPipelineStates];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12 WARNING: ID3D12CommandList::DrawInstanced: Input vertex slot 0 has stride 20 which is less than the minimum stride logically expected from the current Input Layout (28 bytes). This is OK, as hardware is perfectly capable of reading overlapping data. However the developer probably did not intend to make use of this behavior.  [ EXECUTION WARNING #209: COMMAND_LIST_DRAW_VERTEX_BUFFER_STRIDE_TOO_SMALL]</t>
+  </si>
+  <si>
+    <t>D3D12 WARNING: ID3D12CommandList::DrawInstanced: Vertex Buffer at the input vertex slot 0 is not big enough for what the Draw*() call expects to traverse. This is OK, as reading off the end of the Buffer is defined to return 0. However the developer probably did not intend to make use of this behavior.  [ EXECUTION WARNING #210: COMMAND_LIST_DRAW_VERTEX_BUFFER_TOO_SMALL]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intputlayout  LPCSTR SemanticName;
+    UINT SemanticIndex;
+    DXGI_FORMAT Format;
+    UINT InputSlot;
+    UINT AlignedByteOffset;
+    D3D12_INPUT_CLASSIFICATION InputSlotClass;
+    UINT InstanceDataStepRate; 보내는 정보와 크기가 같은 format을 맞춰주자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -199,13 +216,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,6 +260,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010CCB8-5337-4488-8FF7-1A2F88F7C1B3}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -728,23 +777,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
@@ -945,6 +1000,9 @@
       <c r="F34" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F11:F12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Client/ClientDoc/Errornote.xlsx
+++ b/Client/ClientDoc/Errornote.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationWork\Client\ClientDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\졸작2\Client\ClientDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE638619-C7C6-4506-A6DF-A4E71EAA1967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1BB0AF-014F-4D47-A644-4E3A057CED4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12405" windowHeight="14730" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>발견 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,9 @@
     D3D12_INPUT_CLASSIFICATION InputSlotClass;
     UINT InstanceDataStepRate; 보내는 정보와 크기가 같은 format을 맞춰주자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">D3D12 ERROR: ID3D12Device::RemoveDevice: Device removal has been triggered for the following reason </t>
   </si>
 </sst>
 </file>
@@ -261,11 +264,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,21 +635,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010CCB8-5337-4488-8FF7-1A2F88F7C1B3}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="93.5" customWidth="1"/>
-    <col min="6" max="6" width="71.875" customWidth="1"/>
+    <col min="6" max="6" width="71.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -663,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -680,7 +683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -697,7 +700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -708,7 +711,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -723,7 +726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -738,7 +741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -751,7 +754,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" ht="99" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -764,7 +767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -777,7 +780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -786,11 +789,11 @@
       <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -799,18 +802,22 @@
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>20200305</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -819,7 +826,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -828,7 +835,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -837,7 +844,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -846,7 +853,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -855,7 +862,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -864,7 +871,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -873,7 +880,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -882,7 +889,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -891,7 +898,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -900,7 +907,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -909,7 +916,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -918,7 +925,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -927,7 +934,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -936,7 +943,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -945,7 +952,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -954,7 +961,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -963,7 +970,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -972,7 +979,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -981,7 +988,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -990,7 +997,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -1017,10 +1024,10 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="60.25" customWidth="1"/>
-    <col min="5" max="5" width="95.625" customWidth="1"/>
+    <col min="4" max="4" width="60.19921875" customWidth="1"/>
+    <col min="5" max="5" width="95.59765625" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1038,18 +1045,18 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="115.5" customWidth="1"/>
     <col min="3" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1060,7 +1067,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="191.4" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>

--- a/Client/ClientDoc/Errornote.xlsx
+++ b/Client/ClientDoc/Errornote.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\졸작2\Client\ClientDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationWork\Client\ClientDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1BB0AF-014F-4D47-A644-4E3A057CED4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCC27A9-1A9E-4AEE-BE60-B8F463FE70E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
     <sheet name="Code" sheetId="2" r:id="rId2"/>
     <sheet name="Anote" sheetId="3" r:id="rId3"/>
+    <sheet name="Memo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>발견 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +166,59 @@
   </si>
   <si>
     <t xml:space="preserve">D3D12 ERROR: ID3D12Device::RemoveDevice: Device removal has been triggered for the following reason </t>
+  </si>
+  <si>
+    <t>SYSTEMID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템이 생성해주는 시스템 값에 대한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertexID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InstanceID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimitiveID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Place of use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">VS </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS/PS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertexID같은 경우에는 index buffer를 사용하지 않을 때는 vertex가 들어 있는 순서대로 0부터 1씩 증가하게 된다. 그리고 index buffer를 사용하고 있을 때는 index 자체가 vertexID를 의미하게 된다. 결론: vertex가 들어가는 순서가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vertex와 마찬가지로 그려지는 순서대로 0에서 시작해서 1씩 증가하게 된다. 새로운 instance가 시작 될때 마다 primitive ID가 0에서 다시 시작한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 그리고 있는 geometry의 instance에 대한 id를 의미하며 역시 0에서 시작해 1씩 증가하게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetGraphicsRoot32BitConstants: The currently set root signature declares parameter [1] with type 32bit constants, with Num32BitValues 32, so it is invalid to set DestOffsetIn32BitValues of 32. [ EXECUTION ERROR #709: SET_ROOT_CONSTANT_INVALID]
+D3D12 ERROR: ID3D12CommandList::SetGraphicsRoot32BitConstants: The currently set root signature declares parameter [1] with type 32bit constants, with Num32BitValues 32, so it is invalid to set DestOffsetIn32BitValues of 32 and Num32BitValuesToSet of 4, since together these go out of bounds. [ EXECUTION ERROR #709: SET_ROOT_CONSTANT_INVALID]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -188,12 +242,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -251,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,6 +335,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -635,21 +716,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010CCB8-5337-4488-8FF7-1A2F88F7C1B3}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="93.5" customWidth="1"/>
-    <col min="6" max="6" width="71.8984375" customWidth="1"/>
+    <col min="6" max="6" width="71.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -666,7 +747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -683,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -700,7 +781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -711,7 +792,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -726,7 +807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -741,7 +822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -754,7 +835,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" ht="99" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -767,7 +848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -780,7 +861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -789,11 +870,11 @@
       <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -802,9 +883,9 @@
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -817,16 +898,18 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -835,7 +918,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -844,7 +927,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -853,7 +936,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -862,7 +945,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -871,7 +954,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -880,7 +963,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -889,7 +972,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -898,7 +981,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>21</v>
       </c>
@@ -907,7 +990,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -916,7 +999,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -925,7 +1008,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -934,7 +1017,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -943,7 +1026,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -952,7 +1035,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -961,7 +1044,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -970,7 +1053,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -979,7 +1062,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -988,7 +1071,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -997,7 +1080,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -1020,14 +1103,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6003E8B3-757D-4013-803E-47761184C0B1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="60.19921875" customWidth="1"/>
-    <col min="5" max="5" width="95.59765625" customWidth="1"/>
+    <col min="4" max="4" width="60.25" customWidth="1"/>
+    <col min="5" max="5" width="95.625" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1041,22 +1124,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FDA18A-1DE0-494D-94C0-E2B7CA3526FA}">
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="115.5" customWidth="1"/>
     <col min="3" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1067,7 +1150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="191.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1076,4 +1159,70 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E737C6-0594-439B-9CB0-51626E008DB9}">
+  <dimension ref="B3:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Client/ClientDoc/Errornote.xlsx
+++ b/Client/ClientDoc/Errornote.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationWork\Client\ClientDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjdtj\OneDrive\바탕 화면\ZzongKkongA\Client\ClientDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCC27A9-1A9E-4AEE-BE60-B8F463FE70E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26F0185-4940-4959-939A-21600C140360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
     <sheet name="Code" sheetId="2" r:id="rId2"/>
     <sheet name="Anote" sheetId="3" r:id="rId3"/>
     <sheet name="Memo" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>발견 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,12 +221,52 @@
 D3D12 ERROR: ID3D12CommandList::SetGraphicsRoot32BitConstants: The currently set root signature declares parameter [1] with type 32bit constants, with Num32BitValues 32, so it is invalid to set DestOffsetIn32BitValues of 32 and Num32BitValuesToSet of 4, since together these go out of bounds. [ EXECUTION ERROR #709: SET_ROOT_CONSTANT_INVALID]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">critical error detected 중단점 트리거 문제 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부르는 힙의 개수가 다를 때 나던 문제, shader 생성시 heap의 개수를 항상 확인 하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StandardShader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Sword (3개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Rocks (2개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Tower (3개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. AnimalBone (2개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. House(2개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. Trees (2개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Fence (2개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +282,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +323,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,6 +420,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -716,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010CCB8-5337-4488-8FF7-1A2F88F7C1B3}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -913,10 +1011,16 @@
       <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>20200520</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
@@ -1225,4 +1329,261 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA00B342-A65E-45A9-A758-81A62E99B08B}">
+  <dimension ref="B3:D42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="5" width="6.125" customWidth="1"/>
+    <col min="6" max="11" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="17">
+        <v>20200520</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13">
+        <f>SUM(D5:D11)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="11"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="11"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="11"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="11"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="11"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="11"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="11"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="11"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="11"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="11"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="11"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="11"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="11"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="11"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="11"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="11"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="11"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="11"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Client/ClientDoc/Errornote.xlsx
+++ b/Client/ClientDoc/Errornote.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjdtj\OneDrive\바탕 화면\ZzongKkongA\Client\ClientDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26F0185-4940-4959-939A-21600C140360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419D923B-366D-4434-90C1-A92BDFEB6B3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{230BCDDD-431A-4D7C-88B3-54A44AE19F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>발견 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,14 @@
   </si>
   <si>
     <t>3. Fence (2개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어뎁터를 외장그래픽으로 바꾸니깐 생긴 스왑체인 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DXGI ERROR: IDXGISwapChain::GetContainingOutput: The swapchain's adapter does not control the output on which the swapchain's window resides. [ MISCELLANEOUS ERROR #80: ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,37 +424,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -814,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6010CCB8-5337-4488-8FF7-1A2F88F7C1B3}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="D14" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -968,7 +976,7 @@
       <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -981,7 +989,7 @@
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
@@ -1022,14 +1030,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>20200520</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
@@ -1335,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA00B342-A65E-45A9-A758-81A62E99B08B}">
   <dimension ref="B3:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1349,238 +1363,238 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>20200520</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13">
+      <c r="B12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11">
         <f>SUM(D5:D11)</f>
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="11"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="11"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="11"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="11"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="11"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
